--- a/Code/Results/Cases/Case_0_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_236/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9140631322749676</v>
+        <v>1.039448040340348</v>
       </c>
       <c r="D2">
-        <v>0.9226721482471975</v>
+        <v>1.047968690964252</v>
       </c>
       <c r="E2">
-        <v>0.9322444094389629</v>
+        <v>1.037949812231992</v>
       </c>
       <c r="F2">
-        <v>0.9108654722574853</v>
+        <v>1.05267353513313</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02675170575854</v>
+        <v>1.026257537234071</v>
       </c>
       <c r="J2">
-        <v>0.939157638263372</v>
+        <v>1.044540002810251</v>
       </c>
       <c r="K2">
-        <v>0.9353253535269903</v>
+        <v>1.050729846239048</v>
       </c>
       <c r="L2">
-        <v>0.9447359954063984</v>
+        <v>1.040739236913732</v>
       </c>
       <c r="M2">
-        <v>0.9237240914118684</v>
+        <v>1.055421616441516</v>
       </c>
       <c r="N2">
-        <v>0.983581684120302</v>
+        <v>1.018665458093369</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9344745758596013</v>
+        <v>1.041921567296975</v>
       </c>
       <c r="D3">
-        <v>0.9436178398037558</v>
+        <v>1.050447336200944</v>
       </c>
       <c r="E3">
-        <v>0.9494515453896204</v>
+        <v>1.040086030807114</v>
       </c>
       <c r="F3">
-        <v>0.935612362243699</v>
+        <v>1.055370732492939</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032158289166689</v>
+        <v>1.026539659425466</v>
       </c>
       <c r="J3">
-        <v>0.9569262129160033</v>
+        <v>1.046651127076961</v>
       </c>
       <c r="K3">
-        <v>0.9550268641704214</v>
+        <v>1.053016131983251</v>
       </c>
       <c r="L3">
-        <v>0.9607748428537758</v>
+        <v>1.04268186526578</v>
       </c>
       <c r="M3">
-        <v>0.947141244463173</v>
+        <v>1.057926880983287</v>
       </c>
       <c r="N3">
-        <v>0.9894888379155518</v>
+        <v>1.019366059093507</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9462145348899406</v>
+        <v>1.043503413442479</v>
       </c>
       <c r="D4">
-        <v>0.9556201077199524</v>
+        <v>1.052029851983047</v>
       </c>
       <c r="E4">
-        <v>0.9593609964255714</v>
+        <v>1.041452462985078</v>
       </c>
       <c r="F4">
-        <v>0.9496861616698538</v>
+        <v>1.057086737650216</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035179098996181</v>
+        <v>1.026711049692088</v>
       </c>
       <c r="J4">
-        <v>0.9671018645754357</v>
+        <v>1.047998618626887</v>
       </c>
       <c r="K4">
-        <v>0.966285410099026</v>
+        <v>1.054473943470437</v>
       </c>
       <c r="L4">
-        <v>0.9699759736500781</v>
+        <v>1.043922716715861</v>
       </c>
       <c r="M4">
-        <v>0.9604323162184297</v>
+        <v>1.059518520267879</v>
       </c>
       <c r="N4">
-        <v>0.992873133167624</v>
+        <v>1.019813134988916</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.950872109377575</v>
+        <v>1.044164043265282</v>
       </c>
       <c r="D5">
-        <v>0.960372452355754</v>
+        <v>1.052690136028571</v>
       </c>
       <c r="E5">
-        <v>0.9632949430299352</v>
+        <v>1.04202319931339</v>
       </c>
       <c r="F5">
-        <v>0.9552365933030363</v>
+        <v>1.057801264997801</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036356817653206</v>
+        <v>1.026780449448248</v>
       </c>
       <c r="J5">
-        <v>0.9711294626222781</v>
+        <v>1.048560751106046</v>
       </c>
       <c r="K5">
-        <v>0.9707366064987356</v>
+        <v>1.055081741414345</v>
       </c>
       <c r="L5">
-        <v>0.9736212127764532</v>
+        <v>1.04444058030021</v>
       </c>
       <c r="M5">
-        <v>0.9656680280768313</v>
+        <v>1.060180717635613</v>
       </c>
       <c r="N5">
-        <v>0.9942128824382026</v>
+        <v>1.019999616154784</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.95163946188917</v>
+        <v>1.044274711903928</v>
       </c>
       <c r="D6">
-        <v>0.9611549038068019</v>
+        <v>1.052800709969924</v>
       </c>
       <c r="E6">
-        <v>0.9639432175690044</v>
+        <v>1.04211881309755</v>
       </c>
       <c r="F6">
-        <v>0.9561492177646204</v>
+        <v>1.057920837268245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03654964084683</v>
+        <v>1.026791946953355</v>
       </c>
       <c r="J6">
-        <v>0.9717924992973068</v>
+        <v>1.048654882829174</v>
       </c>
       <c r="K6">
-        <v>0.9714690982720098</v>
+        <v>1.055183499045111</v>
       </c>
       <c r="L6">
-        <v>0.9742214914570989</v>
+        <v>1.044527311816191</v>
       </c>
       <c r="M6">
-        <v>0.9665285568060852</v>
+        <v>1.060291500590408</v>
       </c>
       <c r="N6">
-        <v>0.994433446687924</v>
+        <v>1.020030841810864</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9462777853741883</v>
+        <v>1.043512257888361</v>
       </c>
       <c r="D7">
-        <v>0.9556846809301127</v>
+        <v>1.052038694266727</v>
       </c>
       <c r="E7">
-        <v>0.9594144100376545</v>
+        <v>1.04146010367032</v>
       </c>
       <c r="F7">
-        <v>0.9497616642908492</v>
+        <v>1.057096312076465</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035195175211173</v>
+        <v>1.026711987413249</v>
       </c>
       <c r="J7">
-        <v>0.9671565962044767</v>
+        <v>1.04800614685901</v>
       </c>
       <c r="K7">
-        <v>0.9663459174332355</v>
+        <v>1.054482084675173</v>
       </c>
       <c r="L7">
-        <v>0.9700254963599889</v>
+        <v>1.043929651226026</v>
       </c>
       <c r="M7">
-        <v>0.960503561604399</v>
+        <v>1.059527395648269</v>
       </c>
       <c r="N7">
-        <v>0.9928913384649072</v>
+        <v>1.019815632495742</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.921320439793396</v>
+        <v>1.040287909814005</v>
       </c>
       <c r="D8">
-        <v>0.9301306935454686</v>
+        <v>1.04881084058223</v>
       </c>
       <c r="E8">
-        <v>0.9383593122745868</v>
+        <v>1.038675087987094</v>
       </c>
       <c r="F8">
-        <v>0.9197042962749911</v>
+        <v>1.053591201055903</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028694440777624</v>
+        <v>1.02635520499912</v>
       </c>
       <c r="J8">
-        <v>0.9454861764186645</v>
+        <v>1.045257361145016</v>
       </c>
       <c r="K8">
-        <v>0.9423483447310573</v>
+        <v>1.051507033136384</v>
       </c>
       <c r="L8">
-        <v>0.9504444703948995</v>
+        <v>1.041399151192251</v>
       </c>
       <c r="M8">
-        <v>0.9320942171408085</v>
+        <v>1.056274450277394</v>
       </c>
       <c r="N8">
-        <v>0.9856851960851943</v>
+        <v>1.018903543511675</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8592151601372202</v>
+        <v>1.034458514301874</v>
       </c>
       <c r="D9">
-        <v>0.8658887068869058</v>
+        <v>1.042954772114192</v>
       </c>
       <c r="E9">
-        <v>0.8861340887627795</v>
+        <v>1.033642363575592</v>
       </c>
       <c r="F9">
-        <v>0.8426068867179894</v>
+        <v>1.04718476843715</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011500397320512</v>
+        <v>1.02564007415476</v>
       </c>
       <c r="J9">
-        <v>0.8909486260436753</v>
+        <v>1.040267493734139</v>
       </c>
       <c r="K9">
-        <v>0.8816103413228966</v>
+        <v>1.046094828200115</v>
       </c>
       <c r="L9">
-        <v>0.901390989614837</v>
+        <v>1.036812651496181</v>
       </c>
       <c r="M9">
-        <v>0.8589003177023496</v>
+        <v>1.05031128661216</v>
       </c>
       <c r="N9">
-        <v>0.9675771161271252</v>
+        <v>1.017247015695852</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8592151601372202</v>
+        <v>1.030466323579439</v>
       </c>
       <c r="D10">
-        <v>0.8658887068869058</v>
+        <v>1.038930622308856</v>
       </c>
       <c r="E10">
-        <v>0.8861340887627795</v>
+        <v>1.030197452780379</v>
       </c>
       <c r="F10">
-        <v>0.8426068867179894</v>
+        <v>1.042750543817115</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011500397320512</v>
+        <v>1.025103760967125</v>
       </c>
       <c r="J10">
-        <v>0.8909486260436753</v>
+        <v>1.036836619343741</v>
       </c>
       <c r="K10">
-        <v>0.8816103413228966</v>
+        <v>1.042365782689046</v>
       </c>
       <c r="L10">
-        <v>0.901390989614837</v>
+        <v>1.033663912088359</v>
       </c>
       <c r="M10">
-        <v>0.8589003177023496</v>
+        <v>1.046172195616202</v>
       </c>
       <c r="N10">
-        <v>0.9675771161271252</v>
+        <v>1.01610750393481</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8592151601372202</v>
+        <v>1.028710969747995</v>
       </c>
       <c r="D11">
-        <v>0.8658887068869058</v>
+        <v>1.037157968646538</v>
       </c>
       <c r="E11">
-        <v>0.8861340887627795</v>
+        <v>1.028683154046165</v>
       </c>
       <c r="F11">
-        <v>0.8426068867179894</v>
+        <v>1.04078969444646</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011500397320512</v>
+        <v>1.024857048342973</v>
       </c>
       <c r="J11">
-        <v>0.8909486260436753</v>
+        <v>1.035324847514745</v>
       </c>
       <c r="K11">
-        <v>0.8816103413228966</v>
+        <v>1.040720784721045</v>
       </c>
       <c r="L11">
-        <v>0.901390989614837</v>
+        <v>1.032277596009187</v>
       </c>
       <c r="M11">
-        <v>0.8589003177023496</v>
+        <v>1.04433913215651</v>
       </c>
       <c r="N11">
-        <v>0.9675771161271252</v>
+        <v>1.015605268625014</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8592151601372202</v>
+        <v>1.028054799442329</v>
       </c>
       <c r="D12">
-        <v>0.8658887068869058</v>
+        <v>1.036494843193883</v>
       </c>
       <c r="E12">
-        <v>0.8861340887627795</v>
+        <v>1.028117156975694</v>
       </c>
       <c r="F12">
-        <v>0.8426068867179894</v>
+        <v>1.040055031816155</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011500397320512</v>
+        <v>1.024763198898323</v>
       </c>
       <c r="J12">
-        <v>0.8909486260436753</v>
+        <v>1.034759246041531</v>
       </c>
       <c r="K12">
-        <v>0.8816103413228966</v>
+        <v>1.040105062843543</v>
       </c>
       <c r="L12">
-        <v>0.901390989614837</v>
+        <v>1.031759102354479</v>
       </c>
       <c r="M12">
-        <v>0.8589003177023496</v>
+        <v>1.043651940593599</v>
       </c>
       <c r="N12">
-        <v>0.9675771161271252</v>
+        <v>1.01541734829441</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8592151601372202</v>
+        <v>1.028195740505922</v>
       </c>
       <c r="D13">
-        <v>0.8658887068869058</v>
+        <v>1.036637300263217</v>
       </c>
       <c r="E13">
-        <v>0.8861340887627795</v>
+        <v>1.028238726494519</v>
       </c>
       <c r="F13">
-        <v>0.8426068867179894</v>
+        <v>1.040212908343927</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011500397320512</v>
+        <v>1.024783430458344</v>
       </c>
       <c r="J13">
-        <v>0.8909486260436753</v>
+        <v>1.034880755434956</v>
       </c>
       <c r="K13">
-        <v>0.8816103413228966</v>
+        <v>1.04023735220156</v>
       </c>
       <c r="L13">
-        <v>0.901390989614837</v>
+        <v>1.031870483745205</v>
       </c>
       <c r="M13">
-        <v>0.8589003177023496</v>
+        <v>1.043799634043055</v>
       </c>
       <c r="N13">
-        <v>0.9675771161271252</v>
+        <v>1.015457720448397</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8592151601372202</v>
+        <v>1.028656816081841</v>
       </c>
       <c r="D14">
-        <v>0.8658887068869058</v>
+        <v>1.037103250917281</v>
       </c>
       <c r="E14">
-        <v>0.8861340887627795</v>
+        <v>1.028636441051582</v>
       </c>
       <c r="F14">
-        <v>0.8426068867179894</v>
+        <v>1.040729096957642</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011500397320512</v>
+        <v>1.024849335989125</v>
       </c>
       <c r="J14">
-        <v>0.8909486260436753</v>
+        <v>1.035278178354792</v>
       </c>
       <c r="K14">
-        <v>0.8816103413228966</v>
+        <v>1.040669985627275</v>
       </c>
       <c r="L14">
-        <v>0.901390989614837</v>
+        <v>1.032234810351492</v>
       </c>
       <c r="M14">
-        <v>0.8589003177023496</v>
+        <v>1.044282458483255</v>
       </c>
       <c r="N14">
-        <v>0.9675771161271252</v>
+        <v>1.015589763229377</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8592151601372202</v>
+        <v>1.028940345215785</v>
       </c>
       <c r="D15">
-        <v>0.8658887068869058</v>
+        <v>1.037389713334808</v>
       </c>
       <c r="E15">
-        <v>0.8861340887627795</v>
+        <v>1.028881016135274</v>
       </c>
       <c r="F15">
-        <v>0.8426068867179894</v>
+        <v>1.041046295156189</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011500397320512</v>
+        <v>1.024889648767836</v>
       </c>
       <c r="J15">
-        <v>0.8909486260436753</v>
+        <v>1.035522501502542</v>
       </c>
       <c r="K15">
-        <v>0.8816103413228966</v>
+        <v>1.040935918590296</v>
       </c>
       <c r="L15">
-        <v>0.901390989614837</v>
+        <v>1.032458809503043</v>
       </c>
       <c r="M15">
-        <v>0.8589003177023496</v>
+        <v>1.044579100881955</v>
       </c>
       <c r="N15">
-        <v>0.9675771161271252</v>
+        <v>1.015670936585203</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8592151601372202</v>
+        <v>1.030582246023409</v>
       </c>
       <c r="D16">
-        <v>0.8658887068869058</v>
+        <v>1.039047619189421</v>
       </c>
       <c r="E16">
-        <v>0.8861340887627795</v>
+        <v>1.030297464972587</v>
       </c>
       <c r="F16">
-        <v>0.8426068867179894</v>
+        <v>1.042879803646663</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011500397320512</v>
+        <v>1.025119826502772</v>
       </c>
       <c r="J16">
-        <v>0.8909486260436753</v>
+        <v>1.036936388220053</v>
       </c>
       <c r="K16">
-        <v>0.8816103413228966</v>
+        <v>1.042474305288322</v>
       </c>
       <c r="L16">
-        <v>0.901390989614837</v>
+        <v>1.033755425342913</v>
       </c>
       <c r="M16">
-        <v>0.8589003177023496</v>
+        <v>1.046292975122265</v>
       </c>
       <c r="N16">
-        <v>0.9675771161271252</v>
+        <v>1.016140646223215</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8592151601372202</v>
+        <v>1.031604918855937</v>
       </c>
       <c r="D17">
-        <v>0.8658887068869058</v>
+        <v>1.040079398581542</v>
       </c>
       <c r="E17">
-        <v>0.8861340887627795</v>
+        <v>1.031179824933258</v>
       </c>
       <c r="F17">
-        <v>0.8426068867179894</v>
+        <v>1.044018863225097</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011500397320512</v>
+        <v>1.025260310053453</v>
       </c>
       <c r="J17">
-        <v>0.8909486260436753</v>
+        <v>1.037816183804598</v>
       </c>
       <c r="K17">
-        <v>0.8816103413228966</v>
+        <v>1.043431083491169</v>
       </c>
       <c r="L17">
-        <v>0.901390989614837</v>
+        <v>1.034562550171299</v>
       </c>
       <c r="M17">
-        <v>0.8589003177023496</v>
+        <v>1.047356993795896</v>
       </c>
       <c r="N17">
-        <v>0.9675771161271252</v>
+        <v>1.016432891967734</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8592151601372202</v>
+        <v>1.032198859475655</v>
       </c>
       <c r="D18">
-        <v>0.8658887068869058</v>
+        <v>1.040678317590979</v>
       </c>
       <c r="E18">
-        <v>0.8861340887627795</v>
+        <v>1.031692315496394</v>
       </c>
       <c r="F18">
-        <v>0.8426068867179894</v>
+        <v>1.044679333784131</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011500397320512</v>
+        <v>1.025340856449817</v>
       </c>
       <c r="J18">
-        <v>0.8909486260436753</v>
+        <v>1.038326836669568</v>
       </c>
       <c r="K18">
-        <v>0.8816103413228966</v>
+        <v>1.043986242993921</v>
       </c>
       <c r="L18">
-        <v>0.901390989614837</v>
+        <v>1.035031131828732</v>
       </c>
       <c r="M18">
-        <v>0.8589003177023496</v>
+        <v>1.047973692919201</v>
       </c>
       <c r="N18">
-        <v>0.9675771161271252</v>
+        <v>1.016602506041543</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8592151601372202</v>
+        <v>1.032400946616437</v>
       </c>
       <c r="D19">
-        <v>0.8658887068869058</v>
+        <v>1.040882045966839</v>
       </c>
       <c r="E19">
-        <v>0.8861340887627795</v>
+        <v>1.031866696129803</v>
       </c>
       <c r="F19">
-        <v>0.8426068867179894</v>
+        <v>1.044903877152071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011500397320512</v>
+        <v>1.025368084994579</v>
       </c>
       <c r="J19">
-        <v>0.8909486260436753</v>
+        <v>1.038500532975645</v>
       </c>
       <c r="K19">
-        <v>0.8816103413228966</v>
+        <v>1.044175048209141</v>
       </c>
       <c r="L19">
-        <v>0.901390989614837</v>
+        <v>1.035190536203741</v>
       </c>
       <c r="M19">
-        <v>0.8589003177023496</v>
+        <v>1.048183310921318</v>
       </c>
       <c r="N19">
-        <v>0.9675771161271252</v>
+        <v>1.016660197499441</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8592151601372202</v>
+        <v>1.031495462269007</v>
       </c>
       <c r="D20">
-        <v>0.8658887068869058</v>
+        <v>1.039968999487407</v>
       </c>
       <c r="E20">
-        <v>0.8861340887627795</v>
+        <v>1.031085381881976</v>
       </c>
       <c r="F20">
-        <v>0.8426068867179894</v>
+        <v>1.043897060065234</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011500397320512</v>
+        <v>1.02524538205107</v>
       </c>
       <c r="J20">
-        <v>0.8909486260436753</v>
+        <v>1.037722051322105</v>
       </c>
       <c r="K20">
-        <v>0.8816103413228966</v>
+        <v>1.043328732576664</v>
       </c>
       <c r="L20">
-        <v>0.901390989614837</v>
+        <v>1.034476181747686</v>
       </c>
       <c r="M20">
-        <v>0.8589003177023496</v>
+        <v>1.047243241904128</v>
       </c>
       <c r="N20">
-        <v>0.9675771161271252</v>
+        <v>1.016401624772669</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8592151601372202</v>
+        <v>1.028521156646004</v>
       </c>
       <c r="D21">
-        <v>0.8658887068869058</v>
+        <v>1.036966170578511</v>
       </c>
       <c r="E21">
-        <v>0.8861340887627795</v>
+        <v>1.028519422157594</v>
       </c>
       <c r="F21">
-        <v>0.8426068867179894</v>
+        <v>1.040577268166118</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011500397320512</v>
+        <v>1.02482998971969</v>
       </c>
       <c r="J21">
-        <v>0.8909486260436753</v>
+        <v>1.035161260409669</v>
       </c>
       <c r="K21">
-        <v>0.8816103413228966</v>
+        <v>1.040542716707091</v>
       </c>
       <c r="L21">
-        <v>0.901390989614837</v>
+        <v>1.032127624309313</v>
       </c>
       <c r="M21">
-        <v>0.8589003177023496</v>
+        <v>1.044140454394482</v>
       </c>
       <c r="N21">
-        <v>0.9675771161271252</v>
+        <v>1.01555091803264</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8592151601372202</v>
+        <v>1.026626985586991</v>
       </c>
       <c r="D22">
-        <v>0.8658887068869058</v>
+        <v>1.035050998865835</v>
       </c>
       <c r="E22">
-        <v>0.8861340887627795</v>
+        <v>1.026885677726828</v>
       </c>
       <c r="F22">
-        <v>0.8426068867179894</v>
+        <v>1.03845334242485</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011500397320512</v>
+        <v>1.02455601521493</v>
       </c>
       <c r="J22">
-        <v>0.8909486260436753</v>
+        <v>1.033527618997447</v>
       </c>
       <c r="K22">
-        <v>0.8816103413228966</v>
+        <v>1.038763789129509</v>
       </c>
       <c r="L22">
-        <v>0.901390989614837</v>
+        <v>1.030630368798218</v>
       </c>
       <c r="M22">
-        <v>0.8589003177023496</v>
+        <v>1.042153004517127</v>
       </c>
       <c r="N22">
-        <v>0.9675771161271252</v>
+        <v>1.015008108688124</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8592151601372202</v>
+        <v>1.027633455457342</v>
       </c>
       <c r="D23">
-        <v>0.8658887068869058</v>
+        <v>1.036068895531224</v>
       </c>
       <c r="E23">
-        <v>0.8861340887627795</v>
+        <v>1.027753733836509</v>
       </c>
       <c r="F23">
-        <v>0.8426068867179894</v>
+        <v>1.039582813407761</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011500397320512</v>
+        <v>1.024702479290827</v>
       </c>
       <c r="J23">
-        <v>0.8909486260436753</v>
+        <v>1.034395922109455</v>
       </c>
       <c r="K23">
-        <v>0.8816103413228966</v>
+        <v>1.03970946538703</v>
       </c>
       <c r="L23">
-        <v>0.901390989614837</v>
+        <v>1.031426087100594</v>
       </c>
       <c r="M23">
-        <v>0.8589003177023496</v>
+        <v>1.043210121179999</v>
       </c>
       <c r="N23">
-        <v>0.9675771161271252</v>
+        <v>1.015296629298061</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8592151601372202</v>
+        <v>1.031544928912994</v>
       </c>
       <c r="D24">
-        <v>0.8658887068869058</v>
+        <v>1.04001889303917</v>
       </c>
       <c r="E24">
-        <v>0.8861340887627795</v>
+        <v>1.031128063345321</v>
       </c>
       <c r="F24">
-        <v>0.8426068867179894</v>
+        <v>1.043952109782708</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011500397320512</v>
+        <v>1.025252131682261</v>
       </c>
       <c r="J24">
-        <v>0.8909486260436753</v>
+        <v>1.037764593508743</v>
       </c>
       <c r="K24">
-        <v>0.8816103413228966</v>
+        <v>1.043374989541681</v>
       </c>
       <c r="L24">
-        <v>0.901390989614837</v>
+        <v>1.034515214713455</v>
       </c>
       <c r="M24">
-        <v>0.8589003177023496</v>
+        <v>1.047294653604701</v>
       </c>
       <c r="N24">
-        <v>0.9675771161271252</v>
+        <v>1.016415755689706</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8592151601372202</v>
+        <v>1.035983716831591</v>
       </c>
       <c r="D25">
-        <v>0.8658887068869058</v>
+        <v>1.044489337925587</v>
       </c>
       <c r="E25">
-        <v>0.8861340887627795</v>
+        <v>1.034958836697648</v>
       </c>
       <c r="F25">
-        <v>0.8426068867179894</v>
+        <v>1.048869099975823</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011500397320512</v>
+        <v>1.025835337504291</v>
       </c>
       <c r="J25">
-        <v>0.8909486260436753</v>
+        <v>1.041575416159012</v>
       </c>
       <c r="K25">
-        <v>0.8816103413228966</v>
+        <v>1.047514807174309</v>
       </c>
       <c r="L25">
-        <v>0.901390989614837</v>
+        <v>1.038014011867038</v>
       </c>
       <c r="M25">
-        <v>0.8589003177023496</v>
+        <v>1.051881115388859</v>
       </c>
       <c r="N25">
-        <v>0.9675771161271252</v>
+        <v>1.017681311744702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_236/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039448040340348</v>
+        <v>0.9140631322749646</v>
       </c>
       <c r="D2">
-        <v>1.047968690964252</v>
+        <v>0.9226721482471945</v>
       </c>
       <c r="E2">
-        <v>1.037949812231992</v>
+        <v>0.9322444094389601</v>
       </c>
       <c r="F2">
-        <v>1.05267353513313</v>
+        <v>0.9108654722574822</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026257537234071</v>
+        <v>1.02675170575854</v>
       </c>
       <c r="J2">
-        <v>1.044540002810251</v>
+        <v>0.9391576382633692</v>
       </c>
       <c r="K2">
-        <v>1.050729846239048</v>
+        <v>0.9353253535269873</v>
       </c>
       <c r="L2">
-        <v>1.040739236913732</v>
+        <v>0.9447359954063957</v>
       </c>
       <c r="M2">
-        <v>1.055421616441516</v>
+        <v>0.9237240914118655</v>
       </c>
       <c r="N2">
-        <v>1.018665458093369</v>
+        <v>0.9835816841203011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041921567296975</v>
+        <v>0.9344745758596033</v>
       </c>
       <c r="D3">
-        <v>1.050447336200944</v>
+        <v>0.9436178398037579</v>
       </c>
       <c r="E3">
-        <v>1.040086030807114</v>
+        <v>0.949451545389622</v>
       </c>
       <c r="F3">
-        <v>1.055370732492939</v>
+        <v>0.935612362243701</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026539659425466</v>
+        <v>1.032158289166689</v>
       </c>
       <c r="J3">
-        <v>1.046651127076961</v>
+        <v>0.9569262129160054</v>
       </c>
       <c r="K3">
-        <v>1.053016131983251</v>
+        <v>0.9550268641704234</v>
       </c>
       <c r="L3">
-        <v>1.04268186526578</v>
+        <v>0.9607748428537772</v>
       </c>
       <c r="M3">
-        <v>1.057926880983287</v>
+        <v>0.947141244463175</v>
       </c>
       <c r="N3">
-        <v>1.019366059093507</v>
+        <v>0.9894888379155524</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043503413442479</v>
+        <v>0.9462145348899398</v>
       </c>
       <c r="D4">
-        <v>1.052029851983047</v>
+        <v>0.955620107719952</v>
       </c>
       <c r="E4">
-        <v>1.041452462985078</v>
+        <v>0.959360996425571</v>
       </c>
       <c r="F4">
-        <v>1.057086737650216</v>
+        <v>0.9496861616698535</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026711049692088</v>
+        <v>1.035179098996181</v>
       </c>
       <c r="J4">
-        <v>1.047998618626887</v>
+        <v>0.9671018645754351</v>
       </c>
       <c r="K4">
-        <v>1.054473943470437</v>
+        <v>0.9662854100990257</v>
       </c>
       <c r="L4">
-        <v>1.043922716715861</v>
+        <v>0.9699759736500778</v>
       </c>
       <c r="M4">
-        <v>1.059518520267879</v>
+        <v>0.9604323162184294</v>
       </c>
       <c r="N4">
-        <v>1.019813134988916</v>
+        <v>0.9928731331676239</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044164043265282</v>
+        <v>0.9508721093775738</v>
       </c>
       <c r="D5">
-        <v>1.052690136028571</v>
+        <v>0.9603724523557524</v>
       </c>
       <c r="E5">
-        <v>1.04202319931339</v>
+        <v>0.9632949430299339</v>
       </c>
       <c r="F5">
-        <v>1.057801264997801</v>
+        <v>0.9552365933030351</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026780449448248</v>
+        <v>1.036356817653206</v>
       </c>
       <c r="J5">
-        <v>1.048560751106046</v>
+        <v>0.9711294626222772</v>
       </c>
       <c r="K5">
-        <v>1.055081741414345</v>
+        <v>0.9707366064987343</v>
       </c>
       <c r="L5">
-        <v>1.04444058030021</v>
+        <v>0.973621212776452</v>
       </c>
       <c r="M5">
-        <v>1.060180717635613</v>
+        <v>0.9656680280768303</v>
       </c>
       <c r="N5">
-        <v>1.019999616154784</v>
+        <v>0.9942128824382023</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044274711903928</v>
+        <v>0.9516394618891718</v>
       </c>
       <c r="D6">
-        <v>1.052800709969924</v>
+        <v>0.9611549038068038</v>
       </c>
       <c r="E6">
-        <v>1.04211881309755</v>
+        <v>0.963943217569006</v>
       </c>
       <c r="F6">
-        <v>1.057920837268245</v>
+        <v>0.9561492177646226</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026791946953355</v>
+        <v>1.03654964084683</v>
       </c>
       <c r="J6">
-        <v>1.048654882829174</v>
+        <v>0.9717924992973084</v>
       </c>
       <c r="K6">
-        <v>1.055183499045111</v>
+        <v>0.9714690982720119</v>
       </c>
       <c r="L6">
-        <v>1.044527311816191</v>
+        <v>0.9742214914571006</v>
       </c>
       <c r="M6">
-        <v>1.060291500590408</v>
+        <v>0.9665285568060873</v>
       </c>
       <c r="N6">
-        <v>1.020030841810864</v>
+        <v>0.9944334466879248</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043512257888361</v>
+        <v>0.9462777853741876</v>
       </c>
       <c r="D7">
-        <v>1.052038694266727</v>
+        <v>0.9556846809301121</v>
       </c>
       <c r="E7">
-        <v>1.04146010367032</v>
+        <v>0.9594144100376536</v>
       </c>
       <c r="F7">
-        <v>1.057096312076465</v>
+        <v>0.9497616642908485</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026711987413249</v>
+        <v>1.035195175211172</v>
       </c>
       <c r="J7">
-        <v>1.04800614685901</v>
+        <v>0.9671565962044761</v>
       </c>
       <c r="K7">
-        <v>1.054482084675173</v>
+        <v>0.9663459174332348</v>
       </c>
       <c r="L7">
-        <v>1.043929651226026</v>
+        <v>0.970025496359988</v>
       </c>
       <c r="M7">
-        <v>1.059527395648269</v>
+        <v>0.9605035616043982</v>
       </c>
       <c r="N7">
-        <v>1.019815632495742</v>
+        <v>0.992891338464907</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040287909814005</v>
+        <v>0.9213204397933973</v>
       </c>
       <c r="D8">
-        <v>1.04881084058223</v>
+        <v>0.9301306935454698</v>
       </c>
       <c r="E8">
-        <v>1.038675087987094</v>
+        <v>0.9383593122745879</v>
       </c>
       <c r="F8">
-        <v>1.053591201055903</v>
+        <v>0.9197042962749922</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02635520499912</v>
+        <v>1.028694440777624</v>
       </c>
       <c r="J8">
-        <v>1.045257361145016</v>
+        <v>0.9454861764186658</v>
       </c>
       <c r="K8">
-        <v>1.051507033136384</v>
+        <v>0.9423483447310586</v>
       </c>
       <c r="L8">
-        <v>1.041399151192251</v>
+        <v>0.9504444703949007</v>
       </c>
       <c r="M8">
-        <v>1.056274450277394</v>
+        <v>0.9320942171408096</v>
       </c>
       <c r="N8">
-        <v>1.018903543511675</v>
+        <v>0.9856851960851948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034458514301874</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D9">
-        <v>1.042954772114192</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E9">
-        <v>1.033642363575592</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F9">
-        <v>1.04718476843715</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02564007415476</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J9">
-        <v>1.040267493734139</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K9">
-        <v>1.046094828200115</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L9">
-        <v>1.036812651496181</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M9">
-        <v>1.05031128661216</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N9">
-        <v>1.017247015695852</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030466323579439</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D10">
-        <v>1.038930622308856</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E10">
-        <v>1.030197452780379</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F10">
-        <v>1.042750543817115</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025103760967125</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J10">
-        <v>1.036836619343741</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K10">
-        <v>1.042365782689046</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L10">
-        <v>1.033663912088359</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M10">
-        <v>1.046172195616202</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N10">
-        <v>1.01610750393481</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028710969747995</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D11">
-        <v>1.037157968646538</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E11">
-        <v>1.028683154046165</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F11">
-        <v>1.04078969444646</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024857048342973</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J11">
-        <v>1.035324847514745</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K11">
-        <v>1.040720784721045</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L11">
-        <v>1.032277596009187</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M11">
-        <v>1.04433913215651</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N11">
-        <v>1.015605268625014</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028054799442329</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D12">
-        <v>1.036494843193883</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E12">
-        <v>1.028117156975694</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F12">
-        <v>1.040055031816155</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024763198898323</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J12">
-        <v>1.034759246041531</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K12">
-        <v>1.040105062843543</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L12">
-        <v>1.031759102354479</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M12">
-        <v>1.043651940593599</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N12">
-        <v>1.01541734829441</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028195740505922</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D13">
-        <v>1.036637300263217</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E13">
-        <v>1.028238726494519</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F13">
-        <v>1.040212908343927</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024783430458344</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J13">
-        <v>1.034880755434956</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K13">
-        <v>1.04023735220156</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L13">
-        <v>1.031870483745205</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M13">
-        <v>1.043799634043055</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N13">
-        <v>1.015457720448397</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028656816081841</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D14">
-        <v>1.037103250917281</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E14">
-        <v>1.028636441051582</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F14">
-        <v>1.040729096957642</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024849335989125</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J14">
-        <v>1.035278178354792</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K14">
-        <v>1.040669985627275</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L14">
-        <v>1.032234810351492</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M14">
-        <v>1.044282458483255</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N14">
-        <v>1.015589763229377</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028940345215785</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D15">
-        <v>1.037389713334808</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E15">
-        <v>1.028881016135274</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F15">
-        <v>1.041046295156189</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024889648767836</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J15">
-        <v>1.035522501502542</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K15">
-        <v>1.040935918590296</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L15">
-        <v>1.032458809503043</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M15">
-        <v>1.044579100881955</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N15">
-        <v>1.015670936585203</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030582246023409</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D16">
-        <v>1.039047619189421</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E16">
-        <v>1.030297464972587</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F16">
-        <v>1.042879803646663</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025119826502772</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J16">
-        <v>1.036936388220053</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K16">
-        <v>1.042474305288322</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L16">
-        <v>1.033755425342913</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M16">
-        <v>1.046292975122265</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N16">
-        <v>1.016140646223215</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031604918855937</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D17">
-        <v>1.040079398581542</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E17">
-        <v>1.031179824933258</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F17">
-        <v>1.044018863225097</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025260310053453</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J17">
-        <v>1.037816183804598</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K17">
-        <v>1.043431083491169</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L17">
-        <v>1.034562550171299</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M17">
-        <v>1.047356993795896</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N17">
-        <v>1.016432891967734</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032198859475655</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D18">
-        <v>1.040678317590979</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E18">
-        <v>1.031692315496394</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F18">
-        <v>1.044679333784131</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025340856449817</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J18">
-        <v>1.038326836669568</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K18">
-        <v>1.043986242993921</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L18">
-        <v>1.035031131828732</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M18">
-        <v>1.047973692919201</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N18">
-        <v>1.016602506041543</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032400946616437</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D19">
-        <v>1.040882045966839</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E19">
-        <v>1.031866696129803</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F19">
-        <v>1.044903877152071</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025368084994579</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J19">
-        <v>1.038500532975645</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K19">
-        <v>1.044175048209141</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L19">
-        <v>1.035190536203741</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M19">
-        <v>1.048183310921318</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N19">
-        <v>1.016660197499441</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031495462269007</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D20">
-        <v>1.039968999487407</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E20">
-        <v>1.031085381881976</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F20">
-        <v>1.043897060065234</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02524538205107</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J20">
-        <v>1.037722051322105</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K20">
-        <v>1.043328732576664</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L20">
-        <v>1.034476181747686</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M20">
-        <v>1.047243241904128</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N20">
-        <v>1.016401624772669</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028521156646004</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D21">
-        <v>1.036966170578511</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E21">
-        <v>1.028519422157594</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F21">
-        <v>1.040577268166118</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02482998971969</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J21">
-        <v>1.035161260409669</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K21">
-        <v>1.040542716707091</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L21">
-        <v>1.032127624309313</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M21">
-        <v>1.044140454394482</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N21">
-        <v>1.01555091803264</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026626985586991</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D22">
-        <v>1.035050998865835</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E22">
-        <v>1.026885677726828</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F22">
-        <v>1.03845334242485</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02455601521493</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J22">
-        <v>1.033527618997447</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K22">
-        <v>1.038763789129509</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L22">
-        <v>1.030630368798218</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M22">
-        <v>1.042153004517127</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N22">
-        <v>1.015008108688124</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027633455457342</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D23">
-        <v>1.036068895531224</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E23">
-        <v>1.027753733836509</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F23">
-        <v>1.039582813407761</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024702479290827</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J23">
-        <v>1.034395922109455</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K23">
-        <v>1.03970946538703</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L23">
-        <v>1.031426087100594</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M23">
-        <v>1.043210121179999</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N23">
-        <v>1.015296629298061</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031544928912994</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D24">
-        <v>1.04001889303917</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E24">
-        <v>1.031128063345321</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F24">
-        <v>1.043952109782708</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025252131682261</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J24">
-        <v>1.037764593508743</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K24">
-        <v>1.043374989541681</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L24">
-        <v>1.034515214713455</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M24">
-        <v>1.047294653604701</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N24">
-        <v>1.016415755689706</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035983716831591</v>
+        <v>0.8592151601372195</v>
       </c>
       <c r="D25">
-        <v>1.044489337925587</v>
+        <v>0.8658887068869051</v>
       </c>
       <c r="E25">
-        <v>1.034958836697648</v>
+        <v>0.8861340887627791</v>
       </c>
       <c r="F25">
-        <v>1.048869099975823</v>
+        <v>0.8426068867179883</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025835337504291</v>
+        <v>1.011500397320512</v>
       </c>
       <c r="J25">
-        <v>1.041575416159012</v>
+        <v>0.8909486260436746</v>
       </c>
       <c r="K25">
-        <v>1.047514807174309</v>
+        <v>0.8816103413228958</v>
       </c>
       <c r="L25">
-        <v>1.038014011867038</v>
+        <v>0.9013909896148364</v>
       </c>
       <c r="M25">
-        <v>1.051881115388859</v>
+        <v>0.8589003177023488</v>
       </c>
       <c r="N25">
-        <v>1.017681311744702</v>
+        <v>0.9675771161271248</v>
       </c>
     </row>
   </sheetData>
